--- a/raw_data/tested_totals.xlsx
+++ b/raw_data/tested_totals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FatherMammoth\Documents\PortfolioPorjects\medianlabs.kccbacts_sites_map\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82026C8-F616-4C80-9514-7754FA6F6D6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333EEC53-CE00-4464-84C4-08307CEBAEF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Siaya</t>
   </si>
@@ -86,6 +86,15 @@
   </si>
   <si>
     <t>Homa Bay</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>Western</t>
+  </si>
+  <si>
+    <t>number_positive</t>
   </si>
 </sst>
 </file>
@@ -584,7 +593,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -592,6 +601,8 @@
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -947,187 +958,319 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" customWidth="1"/>
+    <col min="4" max="4" width="15.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2">
+        <v>152</v>
+      </c>
+      <c r="D2" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2">
+        <v>198</v>
+      </c>
+      <c r="D3" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2">
+        <v>719</v>
+      </c>
+      <c r="D4" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>74</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2">
+        <v>906</v>
+      </c>
+      <c r="D6" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>808</v>
+      </c>
+      <c r="D7" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C9" s="2">
+        <v>402</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2">
+        <v>365</v>
+      </c>
+      <c r="D10" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2">
+        <v>284</v>
+      </c>
+      <c r="D11" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2">
+        <v>709</v>
+      </c>
+      <c r="D12" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2">
+        <v>288</v>
+      </c>
+      <c r="D13" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>98</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
         <v>1077</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="2">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="D15" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>225</v>
+      </c>
+      <c r="D16" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="26" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="2">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="2">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
         <v>104</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D17" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="2">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>356</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1112</v>
+      </c>
+      <c r="D19" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2">
+        <v>153</v>
+      </c>
+      <c r="D20" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="2">
-        <v>19</v>
+      <c r="D21" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:D21">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
